--- a/data/Unicrypt/Unicrypt20160101.xlsx
+++ b/data/Unicrypt/Unicrypt20160101.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
